--- a/Input Data/DevTesting/DevTesting_IC.wet.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.wet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Projects\Models\MTOM\MTOM_Dir\DevTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Projects\Models\MTOM\MTOM_Dir\Input Data\DevTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="48">
   <si>
     <t>NaN</t>
   </si>
@@ -501,11 +501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S73" sqref="S73"/>
+      <selection pane="bottomRight" activeCell="U63" sqref="U63:V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4733,91 +4733,280 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1460318</v>
+      </c>
+      <c r="V63">
+        <v>554752</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>1472923</v>
+      </c>
+      <c r="V64">
+        <v>566285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1409811</v>
+      </c>
+      <c r="V65">
+        <v>586291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -12718,8 +12907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A61:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Input Data/DevTesting/DevTesting_IC.wet.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.wet.xlsx
@@ -502,10 +502,10 @@
   <dimension ref="A1:Z412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U63" sqref="U63:V65"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +586,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>7460.85</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>7457.73</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>7456.79</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>7454.91</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>7452.52</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>7441.65</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>7431.75</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>7435.58</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>7463.83</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>7498.93</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>7506.75</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>7508.37</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>7509.25</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>7507.45</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>7502.16</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>7493.32</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>7484.39</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>7476.21</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>7471.52</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>7469.88</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>7487.53</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>7518.28</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>7518.2</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>7515.16</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>7509.34</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -11579,7 +11579,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -11691,7 +11691,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>27166.73</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>26912.28</v>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>26184.58</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>22240.35</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>22972.43</v>
@@ -11948,7 +11948,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>18408.830000000002</v>
@@ -11989,7 +11989,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>27857.19</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>60685.65</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>192437.8</v>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>322641.40000000002</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>164566</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>104596.4</v>
@@ -12235,7 +12235,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>79692.45</v>
@@ -12276,7 +12276,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>52643.53</v>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>36661.449999999997</v>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>27399.54</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>27065.46</v>
@@ -12440,7 +12440,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>23799.64</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>31192.68</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>42449.79</v>
@@ -12563,7 +12563,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>167926.39999999999</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>442963.20000000001</v>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>238185.3</v>
@@ -12686,7 +12686,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>113906.7</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>41228.720000000001</v>
@@ -12768,7 +12768,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="1">
         <v>34384.01</v>
@@ -12907,8 +12907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A61:A62"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12948,7 +12948,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>15568.21</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>11770.88</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>7929.24</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5">
         <v>704.35</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>-4183.49</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>1935</v>
@@ -13206,7 +13206,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>9241.1200000000008</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>12133.1</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>46607.79</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>47801.73</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>68089.64</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>83114.509999999995</v>
@@ -13464,7 +13464,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>17491.28</v>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>29394.48</v>
@@ -13550,7 +13550,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>-2798.9</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>-2026.93</v>
@@ -13636,7 +13636,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>31439.83</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>22693.03</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>34108</v>
@@ -13764,7 +13764,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>76599.17</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>81077.850000000006</v>
@@ -13851,7 +13851,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>62467.67</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>60205.72</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>64003.28</v>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>90030.71</v>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="1">
         <v>133462.31</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B28" s="1">
         <v>52581.68</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B29" s="1">
         <v>51959.83</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B30" s="1">
         <v>31442.5</v>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B31" s="1">
         <v>32191.5</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B32" s="1">
         <v>19579.349999999999</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B33" s="1">
         <v>-6785.77</v>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B34" s="1">
         <v>32891.919999999998</v>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B35" s="1">
         <v>43907.68</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B36" s="1">
         <v>49438.31</v>
@@ -14467,7 +14467,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B37" s="1">
         <v>30162.47</v>
@@ -14511,7 +14511,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B38" s="1">
         <v>37451.61</v>
@@ -14555,7 +14555,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B39" s="1">
         <v>-7962.21</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="1">
         <v>19163.099999999999</v>
@@ -14643,7 +14643,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1">
         <v>32173.51</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="1">
         <v>-8162.7</v>
@@ -14731,7 +14731,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1">
         <v>-14345.38</v>
@@ -14775,7 +14775,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="1">
         <v>21266.83</v>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B45" s="1">
         <v>6244.1</v>
@@ -14863,7 +14863,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B46" s="1">
         <v>32762.03</v>
@@ -14907,7 +14907,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B47" s="1">
         <v>36855.1</v>
@@ -14951,7 +14951,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B48" s="1">
         <v>32877.120000000003</v>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B49" s="1">
         <v>25662.91</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B50" s="1">
         <v>29726.14</v>
@@ -15083,7 +15083,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B51" s="1">
         <v>14659.67</v>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B52" s="1">
         <v>8323.16</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B53" s="1">
         <v>27887.51</v>
@@ -15212,7 +15212,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B54" s="1">
         <v>-9490.57</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B55">
         <v>288.20999999999998</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B56" s="1">
         <v>8176.45</v>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B57" s="1">
         <v>4286.16</v>
@@ -15387,7 +15387,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B58" s="1">
         <v>14885.89</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B59" s="1">
         <v>12004.91</v>
@@ -15475,7 +15475,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B60" s="1">
         <v>10577.18</v>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B61" s="1">
         <v>47366.78</v>
@@ -15563,7 +15563,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B62" s="1">
         <v>21405.07</v>

--- a/Input Data/DevTesting/DevTesting_IC.wet.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.wet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="48">
   <si>
     <t>NaN</t>
   </si>
@@ -501,11 +501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11576,10 +11576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11678,6 +11678,29 @@
       </c>
       <c r="G4">
         <v>1212.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>44197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3684.76</v>
+      </c>
+      <c r="G5">
+        <v>1207.9000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Input Data/DevTesting/DevTesting_IC.wet.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.wet.xlsx
@@ -505,7 +505,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,7 +1935,7 @@
         <v>951252.89</v>
       </c>
       <c r="T21" s="6">
-        <v>727063.99999834399</v>
+        <v>4557217</v>
       </c>
       <c r="U21">
         <v>1644196</v>

--- a/Input Data/DevTesting/DevTesting_IC.wet.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.wet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="48">
   <si>
     <t>NaN</t>
   </si>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11578,8 +11578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11641,7 +11641,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -11664,7 +11664,7 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -11687,7 +11687,7 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">

--- a/Input Data/DevTesting/DevTesting_IC.wet.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.wet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="48">
   <si>
     <t>NaN</t>
   </si>
@@ -505,7 +505,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S15:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11579,7 +11579,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11670,8 +11670,8 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
+      <c r="E4">
+        <v>17493441</v>
       </c>
       <c r="F4">
         <v>3685.24</v>
